--- a/docs/테스트 리스트 양식.xlsx
+++ b/docs/테스트 리스트 양식.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\장휘준\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\internship-2020h2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3794DE0E-FB01-4FCB-B500-9DF8C35C5B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52EF16D-B236-4249-96D1-23CA5632A778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,24 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$50</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,14 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자가 동작하지 않으면 속도가 Default 속도로 떨어지는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애물은 좌,우 이동 및 점프를 통해서 피할 수 있는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>풍선 오브젝트는 펀치를 통하여 터트려지는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +196,58 @@
   </si>
   <si>
     <t>바닥 스크린이 하이라이트 되는 경우는 몸통(기존 양 발)이 들어온 경우만 되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥 스크린에 나타나는 버튼들은 밟을 시 테두리가 회전하면서 0.8초 기다리고 선택되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작시 메뉴 화면에서 시작하며, 게임시작, 환경설정, 랭킹, 게임 종료는 모두 정상적으로 작동하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥 스크린에는 각 화면마다 필요한 버튼들이 전면화면과 바닥화면에 모두 제대로 나오는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 메뉴들은 하이라이트 되어 표시되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹은 오류없이 정상적으로 직전 기록들이 메인메뉴에서도 표시되는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍선 오브젝트는 점프와 펀치를 동시에 해도 터트려지는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콤보는 충돌 판정이 아닌 모든 타일(하트, 풍선, 빈 곳)을 지날때마다 1콤보씩 오르는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게임 오버 및 클리어시 결과 화면이 나오며 진행시간, 콤보 횟수, 내 점수가 표시되는가? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 화면에서 랭킹 화면으로 이동할 수 있는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이동 된 랭킹 화면에서의 내 점수는 기존 랭킹과 비교하여 올바른 랭킹 결과값을 표시했는가? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 중(지면에 닿기 전)에는 하트 획득이 불가능한가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 동작하지 않으면 속도가 점차 Default 속도로 떨어지는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물은 좌,우 이동 및 점프를 통해서 정상적으로 피해지는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -406,13 +460,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,6 +524,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -735,15 +804,15 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="87.296875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="32.796875" customWidth="1"/>
@@ -752,369 +821,475 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="5"/>
+      <c r="B44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="6"/>
-      <c r="B28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="6"/>
-      <c r="B34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="6"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="1"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="5"/>
+      <c r="B50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="20"/>
+      <c r="B51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B54" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1122,6 +1297,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>